--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.number.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D232C7-099C-EA49-AB2F-D8BD7A475DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED022B51-191D-FA4F-A3AA-925DDA8EC844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66140" yWindow="-5560" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62120" yWindow="-12840" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-NUMBER" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>code</t>
   </si>
@@ -247,13 +247,173 @@
   </si>
   <si>
     <t>6905ec50-d641-40af-94c8-f50acf5f1fd3</t>
+  </si>
+  <si>
+    <t>f8b33c3a-b804-4439-a892-9dd60765e18f</t>
+  </si>
+  <si>
+    <t>W.Business.Travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差申请工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`${prefix}${time}${seed}`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyMMdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2e4a454c-80cc-49c8-bd56-ec1f6c1aa2c6</t>
+  </si>
+  <si>
+    <t>W.Leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假申请工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278a5b7f-5303-42a4-841a-c5501f7cde0b</t>
+  </si>
+  <si>
+    <t>W.Handover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01a5bcf5-b527-4ed3-9365-f85005bdd0cd</t>
+  </si>
+  <si>
+    <t>W.Training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38f98cb3-e895-460f-a620-2263e1faf196</t>
+  </si>
+  <si>
+    <t>W.Check.In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场申请工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20dc16a9-bcea-499d-9f5f-c9af64853ec0</t>
+  </si>
+  <si>
+    <t>W.Check.Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离场申请工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54389534-108d-481c-b258-a43467ecc731</t>
+  </si>
+  <si>
+    <t>W.Assessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178400e0-788d-4b13-b1d8-4edc6f0febcd</t>
+  </si>
+  <si>
+    <t>W.Labor.Hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时补签工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check-in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.check-out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.assessment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.vendor.hour</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.trip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.vacation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.assigment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.oa.training</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +438,21 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -376,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +596,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -747,7 +931,7 @@
     <col min="1" max="1" width="54.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" style="8" bestFit="1" customWidth="1"/>
@@ -817,17 +1001,17 @@
       <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>34</v>
@@ -861,17 +1045,17 @@
       <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>35</v>
@@ -903,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6">
+      <c r="I5" s="15"/>
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M5" s="14"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -941,16 +1125,16 @@
         <v>5</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="I6" s="15"/>
+      <c r="J6" s="6">
         <v>10</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:16">
@@ -976,16 +1160,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="I7" s="15"/>
+      <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:16">
@@ -1011,16 +1195,16 @@
         <v>5</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="I8" s="15"/>
+      <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:16">
@@ -1046,16 +1230,16 @@
         <v>5</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="I9" s="15"/>
+      <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:16">
@@ -1081,16 +1265,16 @@
         <v>5</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="I10" s="15"/>
+      <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:16">
@@ -1116,17 +1300,305 @@
         <v>5</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="I11" s="15"/>
+      <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.number.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.number.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED022B51-191D-FA4F-A3AA-925DDA8EC844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1736D9-86D6-A04A-849A-FEF9F596D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62120" yWindow="-12840" windowWidth="47080" windowHeight="18220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="111">
   <si>
     <t>code</t>
   </si>
@@ -407,6 +407,25 @@
   <si>
     <t>w.oa.training</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM.PROJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a9044f2-7027-42d1-864c-d7db72f9e94b</t>
   </si>
 </sst>
 </file>
@@ -591,12 +610,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -605,6 +618,12 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71967B7B-87F9-4846-9FA6-1A2C9E90AB57}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -959,19 +978,19 @@
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1314,30 +1333,28 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="E12" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="6">
         <v>6</v>
       </c>
@@ -1347,25 +1364,26 @@
       <c r="L12" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="E13" s="6">
         <v>100000</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>73</v>
+      <c r="F13" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>68</v>
@@ -1386,22 +1404,22 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>104</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="E14" s="6">
         <v>100000</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>77</v>
+      <c r="F14" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>68</v>
@@ -1422,22 +1440,22 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="6">
         <v>100000</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>81</v>
+      <c r="F15" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>68</v>
@@ -1458,22 +1476,22 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="E16" s="6">
         <v>100000</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>85</v>
+      <c r="F16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>68</v>
@@ -1494,22 +1512,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="6">
         <v>100000</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>68</v>
@@ -1530,22 +1548,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E18" s="6">
         <v>100000</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>93</v>
+      <c r="F18" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>68</v>
@@ -1566,22 +1584,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="E19" s="6">
         <v>100000</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>97</v>
+      <c r="F19" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>68</v>
@@ -1597,6 +1615,42 @@
         <v>1</v>
       </c>
       <c r="L19" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="6">
+        <v>6</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14" t="b">
         <v>0</v>
       </c>
     </row>
